--- a/experiments/V_F14_RePINN_E5/results.xlsx
+++ b/experiments/V_F14_RePINN_E5/results.xlsx
@@ -22,13 +22,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -39,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -47,12 +50,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -418,14 +430,522 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Well</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>strategy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>extractor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fuser</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>R²_VAL</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_VAL</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE_VAL</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>R²_TEST</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_TEST</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE_TEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>aggregate</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.3727592323315558</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1840.671664768874</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23.43118997667311</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7630732404902394</v>
+      </c>
+      <c r="J2" t="n">
+        <v>652.829169583872</v>
+      </c>
+      <c r="K2" t="n">
+        <v>21.02930551532478</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>aggregate</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.01955288006650591</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1431.783592463796</v>
+      </c>
+      <c r="H3" t="n">
+        <v>19.10533791582146</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.783642020493427</v>
+      </c>
+      <c r="J3" t="n">
+        <v>584.8909521035246</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18.13633206282448</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.4131451423192856</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2058.345286925386</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28.80814597955994</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7867558200390089</v>
+      </c>
+      <c r="J4" t="n">
+        <v>634.3130175719223</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19.96163273249418</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.8136388642033727</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2456.408265693039</v>
+      </c>
+      <c r="H5" t="n">
+        <v>35.03773897445843</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7406429205619325</v>
+      </c>
+      <c r="J5" t="n">
+        <v>828.4349222728927</v>
+      </c>
+      <c r="K5" t="n">
+        <v>31.80816160129361</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.9363133726909953</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2114.281455495127</v>
+      </c>
+      <c r="H6" t="n">
+        <v>29.30015630282313</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7157150445038674</v>
+      </c>
+      <c r="J6" t="n">
+        <v>635.1602946712151</v>
+      </c>
+      <c r="K6" t="n">
+        <v>22.0220962645249</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.3196282949952831</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1650.863638719402</v>
+      </c>
+      <c r="H7" t="n">
+        <v>23.44202473270857</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.4008649890059364</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1386.419919642594</v>
+      </c>
+      <c r="K7" t="n">
+        <v>49.0633207075071</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1445571639221954</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1624.542894861999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>21.23550363943378</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.8218687146032386</v>
+      </c>
+      <c r="J8" t="n">
+        <v>521.8155672513963</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17.90300768150688</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.2499012099704689</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1716.987749736319</v>
+      </c>
+      <c r="H9" t="n">
+        <v>23.59846881117585</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.7558851647330098</v>
+      </c>
+      <c r="J9" t="n">
+        <v>732.0162838685727</v>
+      </c>
+      <c r="K9" t="n">
+        <v>29.41185410132494</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>tcn</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.1680289625362201</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1600.153391658388</v>
+      </c>
+      <c r="H10" t="n">
+        <v>20.85792539726759</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8284683990560127</v>
+      </c>
+      <c r="J10" t="n">
+        <v>475.5260900621996</v>
+      </c>
+      <c r="K10" t="n">
+        <v>16.0635505452276</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>tcn</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.09798764020575823</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1511.918223905583</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20.24729062304986</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5351200314495057</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1216.73938356399</v>
+      </c>
+      <c r="K11" t="n">
+        <v>45.16146427609522</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -436,14 +956,522 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Well</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>strategy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>extractor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fuser</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>R²_VAL</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_VAL</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE_VAL</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>R²_TEST</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_TEST</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE_TEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Aggregated</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>aggregate</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.3727592323315558</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1840.671664768874</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23.43118997667311</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7630732404902394</v>
+      </c>
+      <c r="J2" t="n">
+        <v>652.829169583872</v>
+      </c>
+      <c r="K2" t="n">
+        <v>21.02930551532478</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Aggregated</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.4131451423192856</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2058.345286925386</v>
+      </c>
+      <c r="H3" t="n">
+        <v>28.80814597955994</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7867558200390089</v>
+      </c>
+      <c r="J3" t="n">
+        <v>634.3130175719223</v>
+      </c>
+      <c r="K3" t="n">
+        <v>19.96163273249418</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aggregated</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.9363133726909953</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2114.281455495127</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29.30015630282313</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7157150445038674</v>
+      </c>
+      <c r="J4" t="n">
+        <v>635.1602946712151</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22.0220962645249</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aggregated</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.1445571639221954</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1624.542894861999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21.23550363943378</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8218687146032386</v>
+      </c>
+      <c r="J5" t="n">
+        <v>521.8155672513963</v>
+      </c>
+      <c r="K5" t="n">
+        <v>17.90300768150688</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aggregated</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>tcn</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.1680289625362201</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1600.153391658388</v>
+      </c>
+      <c r="H6" t="n">
+        <v>20.85792539726759</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8284683990560127</v>
+      </c>
+      <c r="J6" t="n">
+        <v>475.5260900621996</v>
+      </c>
+      <c r="K6" t="n">
+        <v>16.0635505452276</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aggregated</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>aggregate</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.01955288006650591</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1431.783592463796</v>
+      </c>
+      <c r="H7" t="n">
+        <v>19.10533791582146</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.783642020493427</v>
+      </c>
+      <c r="J7" t="n">
+        <v>584.8909521035246</v>
+      </c>
+      <c r="K7" t="n">
+        <v>18.13633206282448</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aggregated</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.8136388642033727</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2456.408265693039</v>
+      </c>
+      <c r="H8" t="n">
+        <v>35.03773897445843</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.7406429205619325</v>
+      </c>
+      <c r="J8" t="n">
+        <v>828.4349222728927</v>
+      </c>
+      <c r="K8" t="n">
+        <v>31.80816160129361</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aggregated</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.3196282949952831</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1650.863638719402</v>
+      </c>
+      <c r="H9" t="n">
+        <v>23.44202473270857</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.4008649890059364</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1386.419919642594</v>
+      </c>
+      <c r="K9" t="n">
+        <v>49.0633207075071</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aggregated</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.2499012099704689</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1716.987749736319</v>
+      </c>
+      <c r="H10" t="n">
+        <v>23.59846881117585</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.7558851647330098</v>
+      </c>
+      <c r="J10" t="n">
+        <v>732.0162838685727</v>
+      </c>
+      <c r="K10" t="n">
+        <v>29.41185410132494</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aggregated</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>tcn</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.09798764020575823</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1511.918223905583</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20.24729062304986</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5351200314495057</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1216.73938356399</v>
+      </c>
+      <c r="K11" t="n">
+        <v>45.16146427609522</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -454,14 +1482,522 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Well</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>strategy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>extractor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fuser</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>R²_VAL</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_VAL</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE_VAL</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>R²_TEST</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_TEST</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE_TEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>aggregate</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.971063264194801</v>
+      </c>
+      <c r="G2" t="n">
+        <v>61380.17868407658</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3192993530743785</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.879049939088371</v>
+      </c>
+      <c r="J2" t="n">
+        <v>402999.2940241235</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.827535487503224</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8649452053031212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>144572.3628081477</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7596148675237214</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8984275428167359</v>
+      </c>
+      <c r="J3" t="n">
+        <v>388826.9951573953</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.818452794294672</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.985350000687619</v>
+      </c>
+      <c r="G4" t="n">
+        <v>45223.940278273</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2406201876039151</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9786776893269441</v>
+      </c>
+      <c r="J4" t="n">
+        <v>165721.0151976549</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7541950876517411</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9946042898873523</v>
+      </c>
+      <c r="G5" t="n">
+        <v>28821.94930307789</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1516306492674785</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9882837418646642</v>
+      </c>
+      <c r="J5" t="n">
+        <v>127437.6368757629</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5880723144487467</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>tcn</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9941963798254251</v>
+      </c>
+      <c r="G6" t="n">
+        <v>29805.43260295831</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1564063776079468</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9993805082866715</v>
+      </c>
+      <c r="J6" t="n">
+        <v>29686.69502559429</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1399661573941076</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>aggregate</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9905521048850439</v>
+      </c>
+      <c r="G7" t="n">
+        <v>37792.45532193103</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2006217284523385</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8889729762427522</v>
+      </c>
+      <c r="J7" t="n">
+        <v>369496.3743492321</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.664961083363695</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6688873038360399</v>
+      </c>
+      <c r="G8" t="n">
+        <v>224865.0804151557</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.183664661270767</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9738011504231724</v>
+      </c>
+      <c r="J8" t="n">
+        <v>182691.7721514979</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8564799392045445</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9455439102153748</v>
+      </c>
+      <c r="G9" t="n">
+        <v>94795.37406449503</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4988768141400894</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.4294376921519677</v>
+      </c>
+      <c r="J9" t="n">
+        <v>771379.8871087105</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.393906829984055</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9034809994419736</v>
+      </c>
+      <c r="G10" t="n">
+        <v>124956.2147773374</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.6572439541882316</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9330414961909159</v>
+      </c>
+      <c r="J10" t="n">
+        <v>259072.3366502526</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.160945500383513</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>tcn</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9813187281732579</v>
+      </c>
+      <c r="G11" t="n">
+        <v>55736.3235461229</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.2944048831874976</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5215444112989653</v>
+      </c>
+      <c r="J11" t="n">
+        <v>703849.6395964478</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.102342196815249</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -472,14 +2008,417 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Well</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>strategy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>extractor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fuser</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>R²</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Global 100%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>aggregate</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>652.829169583872</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7630732404902394</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21.02930551532478</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Global 100%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>aggregate</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>584.8909521035246</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.783642020493427</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18.13633206282448</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Global 100%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>634.3130175719223</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7867558200390089</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19.96163273249418</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Global 100%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>828.4349222728927</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7406429205619325</v>
+      </c>
+      <c r="H5" t="n">
+        <v>31.80816160129361</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Global 100%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1386.419919642594</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4008649890059364</v>
+      </c>
+      <c r="H6" t="n">
+        <v>49.0633207075071</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Global 100%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>635.1602946712151</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7157150445038674</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22.0220962645249</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Global 100%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>tcn</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>475.5260900621996</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8284683990560127</v>
+      </c>
+      <c r="H8" t="n">
+        <v>16.0635505452276</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Global 100%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>tcn</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1216.73938356399</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5351200314495057</v>
+      </c>
+      <c r="H9" t="n">
+        <v>45.16146427609522</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Global 100%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>521.8155672513963</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8218687146032386</v>
+      </c>
+      <c r="H10" t="n">
+        <v>17.90300768150688</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Global 100%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>732.0162838685727</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7558851647330098</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29.41185410132494</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -490,14 +2429,417 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Well</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>strategy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>extractor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fuser</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>R²</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Aggregated 100%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>aggregate</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>652.829169583872</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7630732404902394</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21.02930551532478</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Aggregated 100%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>aggregate</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>584.8909521035246</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.783642020493427</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18.13633206282448</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aggregated 100%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>634.3130175719223</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7867558200390089</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19.96163273249418</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aggregated 100%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>828.4349222728927</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7406429205619325</v>
+      </c>
+      <c r="H5" t="n">
+        <v>31.80816160129361</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aggregated 100%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1386.419919642594</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4008649890059364</v>
+      </c>
+      <c r="H6" t="n">
+        <v>49.0633207075071</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aggregated 100%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>635.1602946712151</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7157150445038674</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22.0220962645249</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aggregated 100%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>tcn</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>475.5260900621996</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8284683990560127</v>
+      </c>
+      <c r="H8" t="n">
+        <v>16.0635505452276</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aggregated 100%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>tcn</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1216.73938356399</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5351200314495057</v>
+      </c>
+      <c r="H9" t="n">
+        <v>45.16146427609522</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aggregated 100%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>521.8155672513963</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8218687146032386</v>
+      </c>
+      <c r="H10" t="n">
+        <v>17.90300768150688</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aggregated 100%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>732.0162838685727</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7558851647330098</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29.41185410132494</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -508,14 +2850,417 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Well</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>strategy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>extractor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fuser</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>R²</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cumulative 100%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>aggregate</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>402999.2940241235</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.879049939088371</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.827535487503224</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cumulative 100%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>aggregate</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>369496.3743492321</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8889729762427522</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.664961083363695</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cumulative 100%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>388826.9951573953</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8984275428167359</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.818452794294672</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cumulative 100%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>182691.7721514979</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9738011504231724</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8564799392045445</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cumulative 100%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>771379.8871087105</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4294376921519677</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.393906829984055</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cumulative 100%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>165721.0151976549</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9786776893269441</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7541950876517411</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cumulative 100%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>tcn</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>29686.69502559429</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9993805082866715</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1399661573941076</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cumulative 100%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>tcn</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>703849.6395964478</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5215444112989653</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.102342196815249</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cumulative 100%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>bias_scale</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>127437.6368757629</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9882837418646642</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5880723144487467</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>15/9-F-14</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cumulative 100%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>pressure_ensemble</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>film</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>259072.3366502526</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9330414961909159</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.160945500383513</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>